--- a/miniPCB/04/B/04B-005/TESTbase/data/recorddata.xlsx
+++ b/miniPCB/04/B/04B-005/TESTbase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206476F4-B4F4-4CEE-80F2-D2864CA187AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0BB628-35A1-4108-B8D8-262F9ED0D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
   <si>
     <t>log</t>
   </si>
@@ -217,6 +217,171 @@
   </si>
   <si>
     <t>Test #</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Measure resistance between the signal input pin and ground pin.</t>
+  </si>
+  <si>
+    <t>Resistance measurement with a handheld multimeter.</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Input Signal Short Circuit Test</t>
+  </si>
+  <si>
+    <t>Resistance measurement with handheld multimeter.</t>
+  </si>
+  <si>
+    <t>TP10</t>
+  </si>
+  <si>
+    <t>R4||(R8+R7min)</t>
+  </si>
+  <si>
+    <t>R4||(R8+R7mid)</t>
+  </si>
+  <si>
+    <t>R4||(R8+R7max)</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>END FAIL</t>
+  </si>
+  <si>
+    <t>Adjust R9 to approximately mid-range. Measure resistance. A determination of IN TOLERANCE indicates that the resistor network formed by R5, R6, R9 is as expected. It is possible that parts selected for C4 and Q1 can cause the measurement to be skewed.</t>
+  </si>
+  <si>
+    <t>TP7</t>
+  </si>
+  <si>
+    <t>R5 + (R6||R9min)</t>
+  </si>
+  <si>
+    <t>R5 + (R6||R9mid)</t>
+  </si>
+  <si>
+    <t>R5 + (R6||R9max)</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Adjust R9 toward min.</t>
+  </si>
+  <si>
+    <t>Adjust R9 toward max.</t>
+  </si>
+  <si>
+    <t>R5, R6, R9, (C4, Q1)</t>
+  </si>
+  <si>
+    <t>Adjust R7 toward min.</t>
+  </si>
+  <si>
+    <t>Adjust R7 toward max.</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>TP6</t>
+  </si>
+  <si>
+    <t>R3min</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R3max</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Emitter Resistors Test (R5, R6, R9)</t>
+  </si>
+  <si>
+    <t>Collector Resistors Test (R4, R7, R8)</t>
+  </si>
+  <si>
+    <t>Adjust R7 to approximately mid-range. Measure resistance. A determination of IN TOLERANCE indicates that the resistor network formed by R4, R7, R8 is as expected. It is possible that parts selected for R10, C5, Q1 can cause the measurement to be skewed.</t>
+  </si>
+  <si>
+    <t>R4, R8, R7, (R10, C5, Q1)</t>
+  </si>
+  <si>
+    <t>Base Resistor Test (R3)</t>
+  </si>
+  <si>
+    <t>Base Resistor Test (R2)</t>
+  </si>
+  <si>
+    <t>Measure resistance. A determination of IN TOLERANCE indicates that the resistance of R3 is as expected. It is possible that parts selected for R2, C4 and Q1 can cause the measurement to be skewed.</t>
+  </si>
+  <si>
+    <t>Resistance measurement with handheld meter.</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>TP5</t>
+  </si>
+  <si>
+    <t>Measure resistance. A determination of IN TOLERANCE indicates that the resistance of R2 is as expected. It is possible that parts selected for R2, C4 and Q1 can cause the measurement to be skewed.</t>
+  </si>
+  <si>
+    <t>Base Resistor Test (R1)</t>
+  </si>
+  <si>
+    <t>Measure resistance. A determination of IN TOLERANCE indicates that the resistor R1 has a resistance as expected.</t>
+  </si>
+  <si>
+    <t>R1min</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R1max</t>
+  </si>
+  <si>
+    <t>Name of Test for T9 (R1, C2, Q1)</t>
+  </si>
+  <si>
+    <t>000-000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>asldnfasfna</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Hello World</t>
   </si>
 </sst>
 </file>
@@ -595,7 +760,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -985,8 +1150,1258 @@
         <v>56</v>
       </c>
     </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4">
+        <v>20221127224053</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK5">
+        <v>20221127225816</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6">
+        <v>20221127235326</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" t="s">
+        <v>113</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7">
+        <v>20221128004135</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK8">
+        <v>20221128005106</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK9">
+        <v>20221128010436</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10">
+        <v>20221130180213</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK11">
+        <v>20221130180242</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" t="s">
+        <v>63</v>
+      </c>
+      <c r="V12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK12">
+        <v>20221130180340</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK13">
+        <v>20221130183141</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8SsoxToc2zYbnjqa/eiQmbrVj3Ll/5DLHYlOJHi8OZrme8uqev1CS00FFmBM/wGbNxtIWL0ubVLzHKF6Ra136g==" saltValue="k2d59gNDvU++umftCiii8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="36PPEl7kOPvkJHb0vZeil5IeHVWLnI57OEhHdzKYcsexZmdrBHztWo1rw6GjkhVC+zRMF9ekTQIkwftgnSyYuA==" saltValue="+EShyvey15+SzgfPRHN53Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
